--- a/Common Files/Datasets.xlsx
+++ b/Common Files/Datasets.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{FDCF26FA-DEA4-41E2-B6EA-36AF97A1DFCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C687BB9F-C168-42F4-B59F-9C24A91E2833}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{FDCF26FA-DEA4-41E2-B6EA-36AF97A1DFCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0284845F-C430-4330-93AC-4704EC80C9A6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48DAB250-CF71-4A2C-95F9-F224D276F9E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{48DAB250-CF71-4A2C-95F9-F224D276F9E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Train" sheetId="24" r:id="rId1"/>
     <sheet name="Test" sheetId="25" r:id="rId2"/>
+    <sheet name="IOr6" sheetId="26" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
   <si>
     <t>N</t>
   </si>
@@ -116,7 +117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -144,6 +145,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -431,7 +453,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2709,4 +2731,1574 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670ECCA0-3B30-4F92-9F6A-29C8EABCE4F5}">
+  <dimension ref="A1:F91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="16"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="9.140625" style="5"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10">
+        <v>0.4013507625272334</v>
+      </c>
+      <c r="B2" s="11">
+        <v>85.231508333333338</v>
+      </c>
+      <c r="C2" s="11">
+        <v>26.6</v>
+      </c>
+      <c r="D2" s="12">
+        <v>190</v>
+      </c>
+      <c r="E2" s="11">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="10">
+        <v>0.67340686274509809</v>
+      </c>
+      <c r="B3" s="11">
+        <v>70.440374999999989</v>
+      </c>
+      <c r="C3" s="11">
+        <v>27.75</v>
+      </c>
+      <c r="D3" s="12">
+        <v>190</v>
+      </c>
+      <c r="E3" s="11">
+        <v>5.2349999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="10">
+        <v>0.84027777777777768</v>
+      </c>
+      <c r="B4" s="11">
+        <v>45.469779999999993</v>
+      </c>
+      <c r="C4" s="11">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="D4" s="12">
+        <v>190</v>
+      </c>
+      <c r="E4" s="11">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="10">
+        <v>1.1803333333333332</v>
+      </c>
+      <c r="B5" s="11">
+        <v>19.50137333333333</v>
+      </c>
+      <c r="C5" s="11">
+        <v>16.7</v>
+      </c>
+      <c r="D5" s="12">
+        <v>190</v>
+      </c>
+      <c r="E5" s="11">
+        <v>7.3450000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="10">
+        <v>1.464500000000001</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2.6315668333333333</v>
+      </c>
+      <c r="C6" s="11">
+        <v>14.9</v>
+      </c>
+      <c r="D6" s="12">
+        <v>190</v>
+      </c>
+      <c r="E6" s="11">
+        <v>7.2249999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="10">
+        <v>2.5366666666666613</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D7" s="12">
+        <v>190</v>
+      </c>
+      <c r="E7" s="11">
+        <v>6.3100000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="10">
+        <v>2.3208333333333315</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D8" s="12">
+        <v>190</v>
+      </c>
+      <c r="E8" s="11">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="10">
+        <v>2.5983333333333323</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11">
+        <v>21</v>
+      </c>
+      <c r="D9" s="12">
+        <v>190</v>
+      </c>
+      <c r="E9" s="11">
+        <v>5.0049999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10">
+        <v>2.7383333333333351</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
+        <v>23.7</v>
+      </c>
+      <c r="D10" s="12">
+        <v>190</v>
+      </c>
+      <c r="E10" s="11">
+        <v>4.6349999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="10">
+        <v>3.0183333333333269</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11">
+        <v>25.15</v>
+      </c>
+      <c r="D11" s="12">
+        <v>190</v>
+      </c>
+      <c r="E11" s="11">
+        <v>4.1750000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="10">
+        <v>3.1800000000000015</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
+        <v>28.55</v>
+      </c>
+      <c r="D12" s="12">
+        <v>190</v>
+      </c>
+      <c r="E12" s="11">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="10">
+        <v>3.5349999999999953</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11">
+        <v>28.4</v>
+      </c>
+      <c r="D13" s="12">
+        <v>190</v>
+      </c>
+      <c r="E13" s="11">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="10">
+        <v>3.6266666666666745</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <v>31.85</v>
+      </c>
+      <c r="D14" s="12">
+        <v>190</v>
+      </c>
+      <c r="E14" s="11">
+        <v>3.4850000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7">
+        <v>3.6627777777777766</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="14">
+        <v>31.799999999999997</v>
+      </c>
+      <c r="D15" s="12">
+        <v>190</v>
+      </c>
+      <c r="E15" s="11">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7">
+        <v>3.9144444444444431</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14">
+        <v>34.15</v>
+      </c>
+      <c r="D16" s="12">
+        <v>190</v>
+      </c>
+      <c r="E16" s="11">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="7">
+        <v>0.41200000000000003</v>
+      </c>
+      <c r="B17" s="13">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="C17" s="14">
+        <v>26.509777770763332</v>
+      </c>
+      <c r="D17" s="12">
+        <v>160</v>
+      </c>
+      <c r="E17" s="11">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="7">
+        <v>0.62339999999999995</v>
+      </c>
+      <c r="B18" s="13">
+        <v>1.4599999999999997</v>
+      </c>
+      <c r="C18" s="14">
+        <v>25.838870344930573</v>
+      </c>
+      <c r="D18" s="12">
+        <v>160</v>
+      </c>
+      <c r="E18" s="11">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="7">
+        <v>0.9114000000000001</v>
+      </c>
+      <c r="B19" s="13">
+        <v>0</v>
+      </c>
+      <c r="C19" s="14">
+        <v>28.860129662171069</v>
+      </c>
+      <c r="D19" s="12">
+        <v>160</v>
+      </c>
+      <c r="E19" s="11">
+        <v>4.4249999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="7">
+        <v>1.121</v>
+      </c>
+      <c r="B20" s="13">
+        <v>0</v>
+      </c>
+      <c r="C20" s="14">
+        <v>33.575454363145724</v>
+      </c>
+      <c r="D20" s="12">
+        <v>160</v>
+      </c>
+      <c r="E20" s="11">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0</v>
+      </c>
+      <c r="C21" s="14">
+        <v>38.683270419459987</v>
+      </c>
+      <c r="D21" s="12">
+        <v>160</v>
+      </c>
+      <c r="E21" s="11">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="7">
+        <v>1.3759999999999999</v>
+      </c>
+      <c r="B22" s="13">
+        <v>0</v>
+      </c>
+      <c r="C22" s="14">
+        <v>41.45902605690101</v>
+      </c>
+      <c r="D22" s="12">
+        <v>160</v>
+      </c>
+      <c r="E22" s="11">
+        <v>2.8150000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="7">
+        <v>1.4910000000000001</v>
+      </c>
+      <c r="B23" s="13">
+        <v>0</v>
+      </c>
+      <c r="C23" s="14">
+        <v>43.950722350248327</v>
+      </c>
+      <c r="D23" s="12">
+        <v>160</v>
+      </c>
+      <c r="E23" s="11">
+        <v>2.5449999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="7">
+        <v>1.5470000000000002</v>
+      </c>
+      <c r="B24" s="13">
+        <v>0</v>
+      </c>
+      <c r="C24" s="14">
+        <v>43.284408746880345</v>
+      </c>
+      <c r="D24" s="12">
+        <v>160</v>
+      </c>
+      <c r="E24" s="11">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="7">
+        <v>1.6159999999999997</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0</v>
+      </c>
+      <c r="C25" s="14">
+        <v>44.666477845333283</v>
+      </c>
+      <c r="D25" s="12">
+        <v>160</v>
+      </c>
+      <c r="E25" s="11">
+        <v>2.4450000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="7">
+        <v>1.6466000000000001</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0</v>
+      </c>
+      <c r="C26" s="14">
+        <v>44.989323370904408</v>
+      </c>
+      <c r="D26" s="12">
+        <v>160</v>
+      </c>
+      <c r="E26" s="11">
+        <v>2.3149999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="7">
+        <v>1.73</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0</v>
+      </c>
+      <c r="C27" s="14">
+        <v>44.908012514686028</v>
+      </c>
+      <c r="D27" s="12">
+        <v>160</v>
+      </c>
+      <c r="E27" s="11">
+        <v>2.2450000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="7">
+        <v>1.7439999999999998</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0</v>
+      </c>
+      <c r="C28" s="14">
+        <v>44.811581112838567</v>
+      </c>
+      <c r="D28" s="12">
+        <v>160</v>
+      </c>
+      <c r="E28" s="11">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="7">
+        <v>1.752</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0</v>
+      </c>
+      <c r="C29" s="14">
+        <v>45.106220066026097</v>
+      </c>
+      <c r="D29" s="12">
+        <v>160</v>
+      </c>
+      <c r="E29" s="11">
+        <v>2.1950000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="7">
+        <v>1.716</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0</v>
+      </c>
+      <c r="C30" s="14">
+        <v>44.785024762915484</v>
+      </c>
+      <c r="D30" s="12">
+        <v>160</v>
+      </c>
+      <c r="E30" s="11">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="7">
+        <v>1.754</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0</v>
+      </c>
+      <c r="C31" s="14">
+        <v>44.938316734863534</v>
+      </c>
+      <c r="D31" s="12">
+        <v>160</v>
+      </c>
+      <c r="E31" s="11">
+        <v>2.2450000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="7">
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="B32" s="13">
+        <v>36.050000000000004</v>
+      </c>
+      <c r="C32" s="14">
+        <v>24.577997043451617</v>
+      </c>
+      <c r="D32" s="12">
+        <v>120</v>
+      </c>
+      <c r="E32" s="11">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="7">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="B33" s="13">
+        <v>20.916666666666668</v>
+      </c>
+      <c r="C33" s="14">
+        <v>21.436788480808865</v>
+      </c>
+      <c r="D33" s="12">
+        <v>120</v>
+      </c>
+      <c r="E33" s="11">
+        <v>6.2200000000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="7">
+        <v>0.87166666666666659</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.96666666666666679</v>
+      </c>
+      <c r="C34" s="14">
+        <v>16.735396956515533</v>
+      </c>
+      <c r="D34" s="12">
+        <v>120</v>
+      </c>
+      <c r="E34" s="11">
+        <v>7.02</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="7">
+        <v>1.1133333333333335</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0</v>
+      </c>
+      <c r="C35" s="14">
+        <v>19.477216937146835</v>
+      </c>
+      <c r="D35" s="12">
+        <v>120</v>
+      </c>
+      <c r="E35" s="11">
+        <v>5.5049999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="7">
+        <v>1.3033333333333335</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0</v>
+      </c>
+      <c r="C36" s="14">
+        <v>24.613750639549625</v>
+      </c>
+      <c r="D36" s="12">
+        <v>120</v>
+      </c>
+      <c r="E36" s="11">
+        <v>4.7149999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="7">
+        <v>1.4716666666666667</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0</v>
+      </c>
+      <c r="C37" s="14">
+        <v>28.15260109289617</v>
+      </c>
+      <c r="D37" s="12">
+        <v>120</v>
+      </c>
+      <c r="E37" s="11">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="7">
+        <v>1.6216666666666664</v>
+      </c>
+      <c r="B38" s="13">
+        <v>0</v>
+      </c>
+      <c r="C38" s="14">
+        <v>31.160552326254582</v>
+      </c>
+      <c r="D38" s="12">
+        <v>120</v>
+      </c>
+      <c r="E38" s="11">
+        <v>3.8149999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="7">
+        <v>1.7350000000000001</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0</v>
+      </c>
+      <c r="C39" s="14">
+        <v>33.69562920361119</v>
+      </c>
+      <c r="D39" s="12">
+        <v>120</v>
+      </c>
+      <c r="E39" s="11">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="7">
+        <v>1.8716666666666668</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0</v>
+      </c>
+      <c r="C40" s="14">
+        <v>35.532459724857368</v>
+      </c>
+      <c r="D40" s="12">
+        <v>120</v>
+      </c>
+      <c r="E40" s="11">
+        <v>3.2350000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="7">
+        <v>1.9749999999999996</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0</v>
+      </c>
+      <c r="C41" s="14">
+        <v>36.827827240649249</v>
+      </c>
+      <c r="D41" s="12">
+        <v>120</v>
+      </c>
+      <c r="E41" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="7">
+        <v>2.125</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0</v>
+      </c>
+      <c r="C42" s="14">
+        <v>38.333036302806349</v>
+      </c>
+      <c r="D42" s="12">
+        <v>120</v>
+      </c>
+      <c r="E42" s="11">
+        <v>2.8849999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="7">
+        <v>2.1883333333333339</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0</v>
+      </c>
+      <c r="C43" s="14">
+        <v>41.079489971293583</v>
+      </c>
+      <c r="D43" s="12">
+        <v>120</v>
+      </c>
+      <c r="E43" s="11">
+        <v>2.7149999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="7">
+        <v>2.3266666666666667</v>
+      </c>
+      <c r="B44" s="13">
+        <v>0</v>
+      </c>
+      <c r="C44" s="14">
+        <v>41.930278450909157</v>
+      </c>
+      <c r="D44" s="12">
+        <v>120</v>
+      </c>
+      <c r="E44" s="11">
+        <v>2.5949999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="7">
+        <v>2.48</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0</v>
+      </c>
+      <c r="C45" s="14">
+        <v>43.402271085835594</v>
+      </c>
+      <c r="D45" s="12">
+        <v>120</v>
+      </c>
+      <c r="E45" s="11">
+        <v>2.5300000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="7">
+        <v>2.5316666666666667</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0</v>
+      </c>
+      <c r="C46" s="14">
+        <v>43.711653111307669</v>
+      </c>
+      <c r="D46" s="12">
+        <v>120</v>
+      </c>
+      <c r="E46" s="11">
+        <v>2.4050000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="7">
+        <v>0.36166666666666664</v>
+      </c>
+      <c r="B47" s="13">
+        <v>26.349999999999998</v>
+      </c>
+      <c r="C47" s="14">
+        <v>18.697420343698056</v>
+      </c>
+      <c r="D47" s="12">
+        <v>80</v>
+      </c>
+      <c r="E47" s="11">
+        <v>6.6150000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="7">
+        <v>0.52666666666666673</v>
+      </c>
+      <c r="B48" s="13">
+        <v>13.083333333333334</v>
+      </c>
+      <c r="C48" s="14">
+        <v>15.458656182069415</v>
+      </c>
+      <c r="D48" s="12">
+        <v>80</v>
+      </c>
+      <c r="E48" s="11">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="7">
+        <v>0.69333333333333336</v>
+      </c>
+      <c r="B49" s="13">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="C49" s="14">
+        <v>13.922566438288138</v>
+      </c>
+      <c r="D49" s="12">
+        <v>80</v>
+      </c>
+      <c r="E49" s="11">
+        <v>7.3149999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="7">
+        <v>0.85833333333333339</v>
+      </c>
+      <c r="B50" s="13">
+        <v>0</v>
+      </c>
+      <c r="C50" s="14">
+        <v>16.894116851476245</v>
+      </c>
+      <c r="D50" s="12">
+        <v>80</v>
+      </c>
+      <c r="E50" s="11">
+        <v>5.8249999999999993</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="7">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="B51" s="13">
+        <v>0</v>
+      </c>
+      <c r="C51" s="14">
+        <v>21.493311515846973</v>
+      </c>
+      <c r="D51" s="12">
+        <v>80</v>
+      </c>
+      <c r="E51" s="11">
+        <v>4.9700000000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="7">
+        <v>1.1466666666666667</v>
+      </c>
+      <c r="B52" s="13">
+        <v>0</v>
+      </c>
+      <c r="C52" s="14">
+        <v>26.003877839974201</v>
+      </c>
+      <c r="D52" s="12">
+        <v>80</v>
+      </c>
+      <c r="E52" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="7">
+        <v>1.28</v>
+      </c>
+      <c r="B53" s="13">
+        <v>0</v>
+      </c>
+      <c r="C53" s="14">
+        <v>29.842658152061617</v>
+      </c>
+      <c r="D53" s="12">
+        <v>80</v>
+      </c>
+      <c r="E53" s="11">
+        <v>3.9450000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="7">
+        <v>1.3816666666666666</v>
+      </c>
+      <c r="B54" s="13">
+        <v>0</v>
+      </c>
+      <c r="C54" s="14">
+        <v>32.806019015595076</v>
+      </c>
+      <c r="D54" s="12">
+        <v>80</v>
+      </c>
+      <c r="E54" s="11">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="7">
+        <v>1.4833333333333332</v>
+      </c>
+      <c r="B55" s="13">
+        <v>0</v>
+      </c>
+      <c r="C55" s="14">
+        <v>34.743274637690547</v>
+      </c>
+      <c r="D55" s="12">
+        <v>80</v>
+      </c>
+      <c r="E55" s="11">
+        <v>3.1799999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="7">
+        <v>1.5633333333333335</v>
+      </c>
+      <c r="B56" s="13">
+        <v>0</v>
+      </c>
+      <c r="C56" s="14">
+        <v>37.294430699669213</v>
+      </c>
+      <c r="D56" s="12">
+        <v>80</v>
+      </c>
+      <c r="E56" s="11">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="7">
+        <v>1.665</v>
+      </c>
+      <c r="B57" s="13">
+        <v>0</v>
+      </c>
+      <c r="C57" s="14">
+        <v>37.629403716003502</v>
+      </c>
+      <c r="D57" s="12">
+        <v>80</v>
+      </c>
+      <c r="E57" s="11">
+        <v>2.9400000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="7">
+        <v>1.7366666666666666</v>
+      </c>
+      <c r="B58" s="13">
+        <v>0</v>
+      </c>
+      <c r="C58" s="14">
+        <v>39.748042655712794</v>
+      </c>
+      <c r="D58" s="12">
+        <v>80</v>
+      </c>
+      <c r="E58" s="11">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="7">
+        <v>1.8566666666666665</v>
+      </c>
+      <c r="B59" s="13">
+        <v>0</v>
+      </c>
+      <c r="C59" s="14">
+        <v>40.715829150475599</v>
+      </c>
+      <c r="D59" s="12">
+        <v>80</v>
+      </c>
+      <c r="E59" s="11">
+        <v>2.7450000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="7">
+        <v>1.9283333333333335</v>
+      </c>
+      <c r="B60" s="13">
+        <v>0</v>
+      </c>
+      <c r="C60" s="14">
+        <v>41.699206094806456</v>
+      </c>
+      <c r="D60" s="12">
+        <v>80</v>
+      </c>
+      <c r="E60" s="11">
+        <v>2.585</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="7">
+        <v>2.0100000000000002</v>
+      </c>
+      <c r="B61" s="13">
+        <v>0</v>
+      </c>
+      <c r="C61" s="14">
+        <v>41.878059692140823</v>
+      </c>
+      <c r="D61" s="12">
+        <v>80</v>
+      </c>
+      <c r="E61" s="11">
+        <v>2.5350000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="7">
+        <v>0.27518518518518537</v>
+      </c>
+      <c r="B62" s="13">
+        <v>7.6000000000000005</v>
+      </c>
+      <c r="C62" s="14">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="D62" s="12">
+        <v>60</v>
+      </c>
+      <c r="E62" s="11">
+        <v>7.085</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="7">
+        <v>0.40755555555555495</v>
+      </c>
+      <c r="B63" s="13">
+        <v>0</v>
+      </c>
+      <c r="C63" s="14">
+        <v>15.05</v>
+      </c>
+      <c r="D63" s="12">
+        <v>60</v>
+      </c>
+      <c r="E63" s="11">
+        <v>7.0749999999999993</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="7">
+        <v>0.52866666666666584</v>
+      </c>
+      <c r="B64" s="13">
+        <v>0</v>
+      </c>
+      <c r="C64" s="14">
+        <v>19.8</v>
+      </c>
+      <c r="D64" s="12">
+        <v>60</v>
+      </c>
+      <c r="E64" s="11">
+        <v>5.5150000000000006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="7">
+        <v>0.62733333333333652</v>
+      </c>
+      <c r="B65" s="13">
+        <v>0</v>
+      </c>
+      <c r="C65" s="14">
+        <v>24.299999999999997</v>
+      </c>
+      <c r="D65" s="12">
+        <v>60</v>
+      </c>
+      <c r="E65" s="11">
+        <v>4.7549999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="7">
+        <v>1.0016666666666698</v>
+      </c>
+      <c r="B66" s="13">
+        <v>0</v>
+      </c>
+      <c r="C66" s="14">
+        <v>32.549999999999997</v>
+      </c>
+      <c r="D66" s="12">
+        <v>60</v>
+      </c>
+      <c r="E66" s="11">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="7">
+        <v>1.1483333333333376</v>
+      </c>
+      <c r="B67" s="13">
+        <v>0</v>
+      </c>
+      <c r="C67" s="14">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="D67" s="12">
+        <v>60</v>
+      </c>
+      <c r="E67" s="11">
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="7">
+        <v>2.4400000000000008</v>
+      </c>
+      <c r="B68" s="13">
+        <v>0</v>
+      </c>
+      <c r="C68" s="14">
+        <v>40</v>
+      </c>
+      <c r="D68" s="12">
+        <v>60</v>
+      </c>
+      <c r="E68" s="11">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="7">
+        <v>2.3683333333333394</v>
+      </c>
+      <c r="B69" s="13">
+        <v>0</v>
+      </c>
+      <c r="C69" s="14">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="D69" s="12">
+        <v>60</v>
+      </c>
+      <c r="E69" s="11">
+        <v>3.0650000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="7">
+        <v>2.7683333333333358</v>
+      </c>
+      <c r="B70" s="13">
+        <v>0</v>
+      </c>
+      <c r="C70" s="14">
+        <v>39.549999999999997</v>
+      </c>
+      <c r="D70" s="12">
+        <v>60</v>
+      </c>
+      <c r="E70" s="11">
+        <v>2.835</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="7">
+        <v>2.9133333333333344</v>
+      </c>
+      <c r="B71" s="13">
+        <v>0</v>
+      </c>
+      <c r="C71" s="14">
+        <v>38.9</v>
+      </c>
+      <c r="D71" s="12">
+        <v>60</v>
+      </c>
+      <c r="E71" s="11">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="7">
+        <v>1.4149999999999958</v>
+      </c>
+      <c r="B72" s="13">
+        <v>0</v>
+      </c>
+      <c r="C72" s="14">
+        <v>43.3</v>
+      </c>
+      <c r="D72" s="12">
+        <v>60</v>
+      </c>
+      <c r="E72" s="11">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="7">
+        <v>1.0155555555555547</v>
+      </c>
+      <c r="B73" s="13">
+        <v>0</v>
+      </c>
+      <c r="C73" s="14">
+        <v>43.150000000000006</v>
+      </c>
+      <c r="D73" s="12">
+        <v>60</v>
+      </c>
+      <c r="E73" s="11">
+        <v>2.3149999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="7">
+        <v>0.97044444444444367</v>
+      </c>
+      <c r="B74" s="13">
+        <v>0</v>
+      </c>
+      <c r="C74" s="14">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="D74" s="12">
+        <v>60</v>
+      </c>
+      <c r="E74" s="11">
+        <v>2.3050000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="7">
+        <v>0.84755555555555706</v>
+      </c>
+      <c r="B75" s="13">
+        <v>0</v>
+      </c>
+      <c r="C75" s="14">
+        <v>37.85</v>
+      </c>
+      <c r="D75" s="12">
+        <v>60</v>
+      </c>
+      <c r="E75" s="11">
+        <v>2.1549999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="7">
+        <v>0.78000000000000125</v>
+      </c>
+      <c r="B76" s="13">
+        <v>0</v>
+      </c>
+      <c r="C76" s="14">
+        <v>43.8</v>
+      </c>
+      <c r="D76" s="12">
+        <v>60</v>
+      </c>
+      <c r="E76" s="11">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="7">
+        <v>0.30566448801742929</v>
+      </c>
+      <c r="B77" s="13">
+        <v>107.759795</v>
+      </c>
+      <c r="C77" s="13">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="D77" s="15">
+        <v>40</v>
+      </c>
+      <c r="E77" s="13">
+        <v>7.165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="7">
+        <v>0.45031862745097923</v>
+      </c>
+      <c r="B78" s="13">
+        <v>95.713530000000006</v>
+      </c>
+      <c r="C78" s="13">
+        <v>15.95</v>
+      </c>
+      <c r="D78" s="15">
+        <v>40</v>
+      </c>
+      <c r="E78" s="13">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="7">
+        <v>0.6794444444444433</v>
+      </c>
+      <c r="B79" s="13">
+        <v>81.964353333333321</v>
+      </c>
+      <c r="C79" s="13">
+        <v>15.55</v>
+      </c>
+      <c r="D79" s="15">
+        <v>40</v>
+      </c>
+      <c r="E79" s="13">
+        <v>7.4499999999999993</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="7">
+        <v>0.72966666666666757</v>
+      </c>
+      <c r="B80" s="13">
+        <v>66.638149999999996</v>
+      </c>
+      <c r="C80" s="13">
+        <v>11</v>
+      </c>
+      <c r="D80" s="15">
+        <v>40</v>
+      </c>
+      <c r="E80" s="13">
+        <v>8.2850000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="7">
+        <v>0.8926666666666675</v>
+      </c>
+      <c r="B81" s="13">
+        <v>55.893458333333342</v>
+      </c>
+      <c r="C81" s="13">
+        <v>11.3</v>
+      </c>
+      <c r="D81" s="15">
+        <v>40</v>
+      </c>
+      <c r="E81" s="13">
+        <v>8.4450000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="7">
+        <v>1.5675000000000014</v>
+      </c>
+      <c r="B82" s="13">
+        <v>43.61731666666666</v>
+      </c>
+      <c r="C82" s="13">
+        <v>11.649999999999999</v>
+      </c>
+      <c r="D82" s="15">
+        <v>40</v>
+      </c>
+      <c r="E82" s="13">
+        <v>8.254999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="7">
+        <v>1.1383333333333339</v>
+      </c>
+      <c r="B83" s="13">
+        <v>30.070383333333336</v>
+      </c>
+      <c r="C83" s="13">
+        <v>11.8</v>
+      </c>
+      <c r="D83" s="15">
+        <v>40</v>
+      </c>
+      <c r="E83" s="13">
+        <v>7.9649999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="7">
+        <v>1.5666666666666644</v>
+      </c>
+      <c r="B84" s="13">
+        <v>21.057044999999999</v>
+      </c>
+      <c r="C84" s="13">
+        <v>11.85</v>
+      </c>
+      <c r="D84" s="15">
+        <v>40</v>
+      </c>
+      <c r="E84" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="7">
+        <v>1.7199999999999955</v>
+      </c>
+      <c r="B85" s="13">
+        <v>10.8336445</v>
+      </c>
+      <c r="C85" s="13">
+        <v>11.8</v>
+      </c>
+      <c r="D85" s="15">
+        <v>40</v>
+      </c>
+      <c r="E85" s="13">
+        <v>7.875</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="7">
+        <v>1.9166666666666663</v>
+      </c>
+      <c r="B86" s="13">
+        <v>0</v>
+      </c>
+      <c r="C86" s="13">
+        <v>11.95</v>
+      </c>
+      <c r="D86" s="15">
+        <v>40</v>
+      </c>
+      <c r="E86" s="13">
+        <v>7.335</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="7">
+        <v>2.1366666666666609</v>
+      </c>
+      <c r="B87" s="13">
+        <v>0</v>
+      </c>
+      <c r="C87" s="13">
+        <v>13.2</v>
+      </c>
+      <c r="D87" s="15">
+        <v>40</v>
+      </c>
+      <c r="E87" s="13">
+        <v>6.9749999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="7">
+        <v>2.3200000000000034</v>
+      </c>
+      <c r="B88" s="13">
+        <v>0</v>
+      </c>
+      <c r="C88" s="13">
+        <v>14.85</v>
+      </c>
+      <c r="D88" s="15">
+        <v>40</v>
+      </c>
+      <c r="E88" s="13">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="7">
+        <v>2.4583333333333326</v>
+      </c>
+      <c r="B89" s="13">
+        <v>0</v>
+      </c>
+      <c r="C89" s="13">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D89" s="15">
+        <v>40</v>
+      </c>
+      <c r="E89" s="13">
+        <v>6.2650000000000006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="7">
+        <v>2.4077777777777762</v>
+      </c>
+      <c r="B90" s="13">
+        <v>0</v>
+      </c>
+      <c r="C90" s="13">
+        <v>17.8</v>
+      </c>
+      <c r="D90" s="15">
+        <v>40</v>
+      </c>
+      <c r="E90" s="13">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="7">
+        <v>2.3461111111111137</v>
+      </c>
+      <c r="B91" s="13">
+        <v>0</v>
+      </c>
+      <c r="C91" s="13">
+        <v>18.8</v>
+      </c>
+      <c r="D91" s="15">
+        <v>40</v>
+      </c>
+      <c r="E91" s="13">
+        <v>5.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Common Files/Datasets.xlsx
+++ b/Common Files/Datasets.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{FDCF26FA-DEA4-41E2-B6EA-36AF97A1DFCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0284845F-C430-4330-93AC-4704EC80C9A6}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{FDCF26FA-DEA4-41E2-B6EA-36AF97A1DFCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{20C4EA3B-E972-4F02-BF3B-91D2E156098C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{48DAB250-CF71-4A2C-95F9-F224D276F9E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Train" sheetId="24" r:id="rId1"/>
     <sheet name="Test" sheetId="25" r:id="rId2"/>
-    <sheet name="IOr6" sheetId="26" r:id="rId3"/>
+    <sheet name="6Sets" sheetId="26" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
